--- a/【西安-周闵延】-组员进度表 (1).xlsx
+++ b/【西安-周闵延】-组员进度表 (1).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -82,6 +82,22 @@
   </si>
   <si>
     <t>答辩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态页面完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八点五十</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jQuery部分存在难点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>css样式再熟悉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,7 +481,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -475,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -516,10 +532,18 @@
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1">
       <c r="A3" s="1" t="s">

--- a/【西安-周闵延】-组员进度表 (1).xlsx
+++ b/【西安-周闵延】-组员进度表 (1).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -98,6 +98,22 @@
   </si>
   <si>
     <t>css样式再熟悉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态页面完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五点四十</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传数组卡带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jQuery引用再练</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -481,7 +497,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -492,7 +508,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -552,10 +568,18 @@
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1">
       <c r="A4" s="1" t="s">

--- a/【西安-周闵延】-组员进度表 (1).xlsx
+++ b/【西安-周闵延】-组员进度表 (1).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -73,14 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>整合页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优化页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>答辩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,6 +106,30 @@
   </si>
   <si>
     <t>jQuery引用再练</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整合代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击雪碧图链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正则表达应用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -497,7 +513,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -508,7 +524,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -549,16 +565,16 @@
         <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1">
@@ -569,16 +585,16 @@
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1">
@@ -586,19 +602,27 @@
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -610,7 +634,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>

--- a/【西安-周闵延】-组员进度表 (1).xlsx
+++ b/【西安-周闵延】-组员进度表 (1).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -130,6 +130,18 @@
   </si>
   <si>
     <t>正则表达应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整合完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码整合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -513,7 +525,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -524,7 +536,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -624,10 +636,16 @@
       <c r="B5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1">
       <c r="A6" s="1" t="s">
